--- a/biology/Zoologie/Acropora_palmata/Acropora_palmata.xlsx
+++ b/biology/Zoologie/Acropora_palmata/Acropora_palmata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corail corne d’élan (Acropora palmata) est un des principaux coraux formant les récifs de coraux des Caraïbes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corail corne d’élan a une structure complexe avec de nombreuses grandes branches qui forment un habitat privilégié pour divers habitants des récifs comme les homards, les poissons perroquets. Les colonies de corail à cornes d’élan croissent très vite (5 à 10 cm par an) et peuvent atteindre un diamètre de 3,50 mètres. Sa couleur varie du marron au brun-jaunâtre. Elle résulte d’une symbiose avec une zooxanthelle qui vit à l’intérieur des tissus de ce corail. Cette algue réalise la photosynthèse et fournit le corail en nutriments.
 </t>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Acropora palmata dépend des composés organiques produit par les zooxanthelles symbiotes. Il consomme également des proies telles que du zooplancton et des petits poissons, qu'il capture avec ses tentacules[2].
-Reproduction
-Historiquement, la majorité de la reproduction du corail à cornes d’élans est asexuée, et a lieu lorsqu’une branche du corail se rompt et va s’implanter dans un autre substrat, créant une nouvelle colonie (fragmentation). On considère généralement que 50 % des colonies ont pour origine la fragmentation, bien que ce chiffre varie localement à travers les Caraïbes. La reproduction sexuée se déroule une fois par an en août ou septembre quand les colonies de corail relâchent des millions de gamètes dans l’eau.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acropora palmata dépend des composés organiques produit par les zooxanthelles symbiotes. Il consomme également des proies telles que du zooplancton et des petits poissons, qu'il capture avec ses tentacules.
 </t>
         </is>
       </c>
@@ -573,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce est présente dans les Caraïbes, le golfe du Mexique, la Floride et les Bahamas[3]. Elle s'étend au sud jusqu'au Venezuela[4].
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, la majorité de la reproduction du corail à cornes d’élans est asexuée, et a lieu lorsqu’une branche du corail se rompt et va s’implanter dans un autre substrat, créant une nouvelle colonie (fragmentation). On considère généralement que 50 % des colonies ont pour origine la fragmentation, bien que ce chiffre varie localement à travers les Caraïbes. La reproduction sexuée se déroule une fois par an en août ou septembre quand les colonies de corail relâchent des millions de gamètes dans l’eau.
 </t>
         </is>
       </c>
@@ -604,13 +627,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans les Caraïbes, le golfe du Mexique, la Floride et les Bahamas. Elle s'étend au sud jusqu'au Venezuela.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acropora_palmata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acropora_palmata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>L'espèce et l'homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Statut de l'espèce
-Acropora palmata fait partie des espèces protégées du Endangered Species Act depuis le 4 mai 2006[5],[2]. En décembre 2012, le NOAA's National Marine Fisheries Service propose de reclasser l'espèce en tant qu'espèce menacée[6],[2].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Statut de l'espèce</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acropora palmata fait partie des espèces protégées du Endangered Species Act depuis le 4 mai 2006,. En décembre 2012, le NOAA's National Marine Fisheries Service propose de reclasser l'espèce en tant qu'espèce menacée,.
 </t>
         </is>
       </c>
